--- a/data/metadata/Informe-03-030068-A-TC-TM.xlsx
+++ b/data/metadata/Informe-03-030068-A-TC-TM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>numero-hogares</t>
   </si>
@@ -37,18 +37,12 @@
     <t>iaest-measure:numero-hogares</t>
   </si>
   <si>
-    <t>iaest-dimension:vehiculos-en-el-hogar</t>
+    <t>iaest-measure:vehiculos-en-el-hogar</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:aragon</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -61,16 +55,13 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-vehiculos-en-el-hogar.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-aragon.xlsx</t>
   </si>
 </sst>
 </file>
@@ -167,10 +158,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -178,22 +169,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -201,33 +192,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-03-030068-A-TC-TM.xlsx
+++ b/data/metadata/Informe-03-030068-A-TC-TM.xlsx
@@ -11,57 +11,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>numero-hogares</t>
-  </si>
-  <si>
-    <t>vehiculos-en-el-hogar</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>aragon</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Número hogares</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Vehículos en el hogar</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:numero-hogares</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>iaest-measure:vehiculos-en-el-hogar</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>URI-comarca</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
 </sst>
 </file>
@@ -158,13 +161,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -172,7 +175,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -181,13 +184,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -195,22 +198,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
